--- a/Tables/Table_S3.xlsx
+++ b/Tables/Table_S3.xlsx
@@ -415,14 +415,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="F2">
-        <v>-9.699999999999999</v>
+        <v>-9.26</v>
       </c>
       <c r="G2">
-        <v>29.15</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="3">
@@ -446,14 +446,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="F3">
-        <v>-17.91</v>
+        <v>-18.65</v>
       </c>
       <c r="G3">
-        <v>28.52</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="4">
@@ -477,14 +477,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="F4">
-        <v>-25.5</v>
+        <v>-26.73</v>
       </c>
       <c r="G4">
-        <v>33.46</v>
+        <v>33.21</v>
       </c>
     </row>
     <row r="5">
@@ -508,14 +508,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-6.82</t>
+          <t>-6.5</t>
         </is>
       </c>
       <c r="F5">
-        <v>-31.01</v>
+        <v>-30.32</v>
       </c>
       <c r="G5">
-        <v>18.2</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="6">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="G10">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="G11">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="12">
@@ -733,11 +733,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="F13">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="G13">
         <v>-0.01</v>
@@ -764,11 +764,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="F14">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="G14">
         <v>0.2</v>
@@ -865,11 +865,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="F18">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="G18">
         <v>3.05</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="F19">
@@ -927,11 +927,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="F20">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="G20">
         <v>0.47</v>
@@ -958,11 +958,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="F21">
-        <v>-0.75</v>
+        <v>-0.77</v>
       </c>
       <c r="G21">
         <v>0.39</v>
@@ -1059,14 +1059,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="F25">
-        <v>7.67</v>
+        <v>7.78</v>
       </c>
       <c r="G25">
-        <v>16.24</v>
+        <v>16.12</v>
       </c>
     </row>
     <row r="26">
@@ -1090,14 +1090,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="F26">
-        <v>-5.99</v>
+        <v>-5.92</v>
       </c>
       <c r="G26">
-        <v>4.94</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="27">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="F27">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
       <c r="G27">
-        <v>25.37</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="28">
@@ -1152,14 +1152,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-4.52</t>
+          <t>-4.47</t>
         </is>
       </c>
       <c r="F28">
-        <v>-9</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="G28">
-        <v>-0.02</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="29">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="F29">
-        <v>-9.289999999999999</v>
+        <v>-8.93</v>
       </c>
       <c r="G29">
-        <v>27.6</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="30">
@@ -1214,14 +1214,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="F30">
-        <v>-3.32</v>
+        <v>-3.44</v>
       </c>
       <c r="G30">
-        <v>7.38</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="31">

--- a/Tables/Table_S3.xlsx
+++ b/Tables/Table_S3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,14 +415,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="F2">
-        <v>-9.26</v>
+        <v>-9.67</v>
       </c>
       <c r="G2">
-        <v>28.03</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="3">
@@ -441,19 +441,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sex(m)</t>
+          <t>sex_returning(m)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="F3">
-        <v>-18.65</v>
+        <v>-19.03</v>
       </c>
       <c r="G3">
-        <v>28.32</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="4">
@@ -477,14 +477,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="F4">
-        <v>-26.73</v>
+        <v>-27.95</v>
       </c>
       <c r="G4">
-        <v>33.21</v>
+        <v>32.98</v>
       </c>
     </row>
     <row r="5">
@@ -508,14 +508,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>-6.29</t>
         </is>
       </c>
       <c r="F5">
-        <v>-30.32</v>
+        <v>-30.46</v>
       </c>
       <c r="G5">
-        <v>17.57</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="6">
@@ -609,14 +609,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="F9">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="G9">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>-0.37</v>
+        <v>-0.34</v>
       </c>
       <c r="G10">
         <v>0.28</v>
@@ -671,14 +671,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="F11">
         <v>0.63</v>
       </c>
       <c r="G11">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12">
@@ -697,19 +697,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sex(m)</t>
+          <t>sex_returning(m)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="F12">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="G12">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -733,14 +733,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="F13">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="G13">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
@@ -771,7 +771,7 @@
         <v>-0.09</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
@@ -795,7 +795,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>22%</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>76%</t>
         </is>
       </c>
     </row>
@@ -860,19 +860,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Intercept (f)</t>
+          <t>Intercept (f &amp; before)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="F18">
-        <v>2.1</v>
+        <v>3.88</v>
       </c>
       <c r="G18">
-        <v>3.05</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="19">
@@ -891,19 +891,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sex(m)</t>
+          <t>Left between</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="F19">
-        <v>-0.08</v>
+        <v>-2.55</v>
       </c>
       <c r="G19">
-        <v>1.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="20">
@@ -922,19 +922,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Left after</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-2.61</t>
         </is>
       </c>
       <c r="F20">
-        <v>-0.49</v>
+        <v>-3.36</v>
       </c>
       <c r="G20">
-        <v>0.47</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="21">
@@ -953,19 +953,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Day:sex</t>
+          <t>sex_returning(m)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="F21">
-        <v>-0.77</v>
+        <v>-0.15</v>
       </c>
       <c r="G21">
-        <v>0.39</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="22">
@@ -979,18 +979,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>random (var)</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>38%</t>
-        </is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>-0.34</v>
+      </c>
+      <c r="G22">
+        <v>0.46</v>
       </c>
     </row>
     <row r="23">
@@ -1004,18 +1010,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>random (var)</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>day_j</t>
+          <t>Day:sex</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>-0.68</v>
+      </c>
+      <c r="G23">
+        <v>0.35</v>
       </c>
     </row>
     <row r="24">
@@ -1032,72 +1044,60 @@
           <t>random (var)</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>10%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>log(gap)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>random (var)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Intercept (f &amp; n)</t>
+          <t>day_j</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11.98</t>
-        </is>
-      </c>
-      <c r="F25">
-        <v>7.78</v>
-      </c>
-      <c r="G25">
-        <v>16.12</v>
+          <t>0%</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>log(gap)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Sex(m)</t>
+          <t>random (var)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-0.56</t>
-        </is>
-      </c>
-      <c r="F26">
-        <v>-5.92</v>
-      </c>
-      <c r="G26">
-        <v>5.07</v>
+          <t>90%</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1116,19 +1116,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Push(y)</t>
+          <t>Intercept (f &amp; n)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="F27">
-        <v>2.34</v>
+        <v>7.87</v>
       </c>
       <c r="G27">
-        <v>25.45</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="28">
@@ -1147,19 +1147,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>sex_returning(m)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-4.47</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="F28">
-        <v>-8.970000000000001</v>
+        <v>-6.24</v>
       </c>
       <c r="G28">
-        <v>-0.25</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="29">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Day:push</t>
+          <t>Push(y)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="F29">
-        <v>-8.93</v>
+        <v>2.52</v>
       </c>
       <c r="G29">
-        <v>27.64</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="30">
@@ -1209,19 +1209,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Day:sex</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-4.53</t>
         </is>
       </c>
       <c r="F30">
-        <v>-3.44</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="G30">
-        <v>7.43</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="31">
@@ -1235,18 +1235,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>random (var)</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>Day:push</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="G31">
+        <v>26.39</v>
       </c>
     </row>
     <row r="32">
@@ -1260,18 +1266,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>random (var)</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>push01</t>
+          <t>Day:sex</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>36%</t>
-        </is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>-3.52</v>
+      </c>
+      <c r="G32">
+        <v>7.42</v>
       </c>
     </row>
     <row r="33">
@@ -1295,7 +1307,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>10%</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1325,57 @@
           <t>random (var)</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>push01</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>random (var)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>random (var)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>49%</t>
         </is>
